--- a/output/StructureDefinition-social-interaction.xlsx
+++ b/output/StructureDefinition-social-interaction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/social-interaction</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/social-interaction</t>
   </si>
   <si>
     <t>Version</t>
@@ -483,7 +483,7 @@
     <t>context</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/social-context}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/social-context}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>support</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/social-support}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/social-support}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/social-activity}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/social-activity}
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/social-interaction-type-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/social-interaction-type-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1780,7 +1780,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/social-interaction-quality-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/social-interaction-quality-vs</t>
   </si>
   <si>
     <t>Observation.component:quality.dataAbsentReason</t>
@@ -1825,7 +1825,7 @@
     <t>Observation.component:medium.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/social-interaction-medium-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/social-interaction-medium-vs</t>
   </si>
   <si>
     <t>Observation.component:medium.dataAbsentReason</t>
@@ -2215,17 +2215,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2234,30 +2234,30 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="38.55859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.6328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.26171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-social-interaction.xlsx
+++ b/output/StructureDefinition-social-interaction.xlsx
@@ -3454,7 +3454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>154</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>160</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>165</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>204</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>217</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>228</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>244</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>284</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>485</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>552</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>567</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>580</v>
       </c>
@@ -15272,12 +15272,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AR102">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
